--- a/Datos/Database by set/Set with text box/Xlsx sets/BFZ Standard Series (PSS1).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/BFZ Standard Series (PSS1).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,140 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Canopy Vista</t>
+          <t>('Canopy Vista', ['Land — Forest Plains', '({T}: Add {G} or {W}.)', 'Canopy Vista enters the battlefield tapped unless you control two or more basic lands.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land — Forest Plains</t>
+          <t>('Cinder Glade', ['Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Cinder Glade enters the battlefield tapped unless you control two or more basic lands.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>({T}: Add {G} or {W}.)</t>
+          <t>('Prairie Stream', ['Land — Plains Island', '({T}: Add {W} or {U}.)', 'Prairie Stream enters the battlefield tapped unless you control two or more basic lands.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canopy Vista enters the battlefield tapped unless you control two or more basic lands.</t>
+          <t>('Smoldering Marsh', ['Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Smoldering Marsh enters the battlefield tapped unless you control two or more basic lands.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cinder Glade</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Land — Mountain Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>({T}: Add {R} or {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cinder Glade enters the battlefield tapped unless you control two or more basic lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Prairie Stream</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Land — Plains Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>({T}: Add {W} or {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Prairie Stream enters the battlefield tapped unless you control two or more basic lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Smoldering Marsh</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Land — Swamp Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>({T}: Add {B} or {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Smoldering Marsh enters the battlefield tapped unless you control two or more basic lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sunken Hollow</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Land — Island Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>({T}: Add {U} or {B}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sunken Hollow enters the battlefield tapped unless you control two or more basic lands.</t>
+          <t>('Sunken Hollow', ['Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Sunken Hollow enters the battlefield tapped unless you control two or more basic lands.'])</t>
         </is>
       </c>
     </row>
